--- a/state_results/Rivers/WhanganuiatWadesLanding_5c7967a111.xlsx
+++ b/state_results/Rivers/WhanganuiatWadesLanding_5c7967a111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U315"/>
+  <dimension ref="A1:U318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,7 +1056,7 @@
         <v>182.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1894.3858250988</v>
+        <v>1897.49112569783</v>
       </c>
       <c r="H8" t="n">
         <v>24200</v>
@@ -1141,7 +1141,7 @@
         <v>182.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1894.3858250988</v>
+        <v>1897.49112569783</v>
       </c>
       <c r="H9" t="n">
         <v>24200</v>
@@ -1226,7 +1226,7 @@
         <v>182.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1894.3858250988</v>
+        <v>1897.49112569783</v>
       </c>
       <c r="H10" t="n">
         <v>24200</v>
@@ -1311,7 +1311,7 @@
         <v>182.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1894.3858250988</v>
+        <v>1897.49112569783</v>
       </c>
       <c r="H11" t="n">
         <v>24200</v>
@@ -1878,7 +1878,7 @@
         <v>230</v>
       </c>
       <c r="G18" t="n">
-        <v>1731.74090603236</v>
+        <v>1734.25472080301</v>
       </c>
       <c r="H18" t="n">
         <v>24200</v>
@@ -1963,7 +1963,7 @@
         <v>230</v>
       </c>
       <c r="G19" t="n">
-        <v>1731.74090603236</v>
+        <v>1734.25472080301</v>
       </c>
       <c r="H19" t="n">
         <v>24200</v>
@@ -2048,7 +2048,7 @@
         <v>230</v>
       </c>
       <c r="G20" t="n">
-        <v>1731.74090603236</v>
+        <v>1734.25472080301</v>
       </c>
       <c r="H20" t="n">
         <v>24200</v>
@@ -2133,7 +2133,7 @@
         <v>230</v>
       </c>
       <c r="G21" t="n">
-        <v>1731.74090603236</v>
+        <v>1734.25472080301</v>
       </c>
       <c r="H21" t="n">
         <v>24200</v>
@@ -2615,7 +2615,7 @@
         <v>0.239</v>
       </c>
       <c r="G27" t="n">
-        <v>0.239596898392407</v>
+        <v>0.239645007123736</v>
       </c>
       <c r="H27" t="n">
         <v>0.55</v>
@@ -2626,7 +2626,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="M27" t="n">
         <v>0.41801</v>
@@ -2692,7 +2692,7 @@
         <v>0.239</v>
       </c>
       <c r="G28" t="n">
-        <v>0.239596898392407</v>
+        <v>0.239645007123736</v>
       </c>
       <c r="H28" t="n">
         <v>0.55</v>
@@ -2703,7 +2703,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="M28" t="n">
         <v>0.41801</v>
@@ -3016,7 +3016,7 @@
         <v>230</v>
       </c>
       <c r="G32" t="n">
-        <v>1641.40611641075</v>
+        <v>1643.43650526397</v>
       </c>
       <c r="H32" t="n">
         <v>24200</v>
@@ -3101,7 +3101,7 @@
         <v>230</v>
       </c>
       <c r="G33" t="n">
-        <v>1641.40611641075</v>
+        <v>1643.43650526397</v>
       </c>
       <c r="H33" t="n">
         <v>24200</v>
@@ -3186,7 +3186,7 @@
         <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>1641.40611641075</v>
+        <v>1643.43650526397</v>
       </c>
       <c r="H34" t="n">
         <v>24200</v>
@@ -3271,7 +3271,7 @@
         <v>230</v>
       </c>
       <c r="G35" t="n">
-        <v>1641.40611641075</v>
+        <v>1643.43650526397</v>
       </c>
       <c r="H35" t="n">
         <v>24200</v>
@@ -3753,7 +3753,7 @@
         <v>0.258</v>
       </c>
       <c r="G41" t="n">
-        <v>0.241707086832129</v>
+        <v>0.241744886549602</v>
       </c>
       <c r="H41" t="n">
         <v>0.55</v>
@@ -3764,7 +3764,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="M41" t="n">
         <v>0.41324</v>
@@ -3830,7 +3830,7 @@
         <v>0.258</v>
       </c>
       <c r="G42" t="n">
-        <v>0.241707086832129</v>
+        <v>0.241744886549602</v>
       </c>
       <c r="H42" t="n">
         <v>0.55</v>
@@ -3841,7 +3841,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="M42" t="n">
         <v>0.41324</v>
@@ -4154,10 +4154,10 @@
         <v>285</v>
       </c>
       <c r="G46" t="n">
-        <v>2104.59834923358</v>
+        <v>2434.33983832991</v>
       </c>
       <c r="H46" t="n">
-        <v>24200</v>
+        <v>36942.9733194293</v>
       </c>
       <c r="I46" t="n">
         <v>10180</v>
@@ -4172,7 +4172,7 @@
         <v>85</v>
       </c>
       <c r="M46" t="n">
-        <v>3806.04014</v>
+        <v>3841.93741</v>
       </c>
       <c r="N46" t="n">
         <v>6640</v>
@@ -4239,10 +4239,10 @@
         <v>285</v>
       </c>
       <c r="G47" t="n">
-        <v>2104.59834923358</v>
+        <v>2434.33983832991</v>
       </c>
       <c r="H47" t="n">
-        <v>24200</v>
+        <v>36942.9733194293</v>
       </c>
       <c r="I47" t="n">
         <v>10180</v>
@@ -4257,7 +4257,7 @@
         <v>85</v>
       </c>
       <c r="M47" t="n">
-        <v>3806.04014</v>
+        <v>3841.93741</v>
       </c>
       <c r="N47" t="n">
         <v>6640</v>
@@ -4324,10 +4324,10 @@
         <v>285</v>
       </c>
       <c r="G48" t="n">
-        <v>2104.59834923358</v>
+        <v>2434.33983832991</v>
       </c>
       <c r="H48" t="n">
-        <v>24200</v>
+        <v>36942.9733194293</v>
       </c>
       <c r="I48" t="n">
         <v>10180</v>
@@ -4342,7 +4342,7 @@
         <v>85</v>
       </c>
       <c r="M48" t="n">
-        <v>3806.04014</v>
+        <v>3841.93741</v>
       </c>
       <c r="N48" t="n">
         <v>6640</v>
@@ -4409,10 +4409,10 @@
         <v>285</v>
       </c>
       <c r="G49" t="n">
-        <v>2104.59834923358</v>
+        <v>2434.33983832991</v>
       </c>
       <c r="H49" t="n">
-        <v>24200</v>
+        <v>36942.9733194293</v>
       </c>
       <c r="I49" t="n">
         <v>10180</v>
@@ -4427,7 +4427,7 @@
         <v>85</v>
       </c>
       <c r="M49" t="n">
-        <v>3806.04014</v>
+        <v>3841.93741</v>
       </c>
       <c r="N49" t="n">
         <v>6640</v>
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.243</v>
+        <v>0.2425</v>
       </c>
       <c r="G55" t="n">
-        <v>0.252327404842145</v>
+        <v>0.252358534021241</v>
       </c>
       <c r="H55" t="n">
         <v>0.61</v>
@@ -4965,10 +4965,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.243</v>
+        <v>0.2425</v>
       </c>
       <c r="G56" t="n">
-        <v>0.252327404842145</v>
+        <v>0.252358534021241</v>
       </c>
       <c r="H56" t="n">
         <v>0.61</v>
@@ -5292,13 +5292,13 @@
         <v>260</v>
       </c>
       <c r="G60" t="n">
-        <v>3040.10034217609</v>
+        <v>3361.62821411273</v>
       </c>
       <c r="H60" t="n">
         <v>64900</v>
       </c>
       <c r="I60" t="n">
-        <v>18011.69669</v>
+        <v>21665</v>
       </c>
       <c r="J60" t="n">
         <v>41.5094339622642</v>
@@ -5377,13 +5377,13 @@
         <v>260</v>
       </c>
       <c r="G61" t="n">
-        <v>3040.10034217609</v>
+        <v>3361.62821411273</v>
       </c>
       <c r="H61" t="n">
         <v>64900</v>
       </c>
       <c r="I61" t="n">
-        <v>18011.69669</v>
+        <v>21665</v>
       </c>
       <c r="J61" t="n">
         <v>41.5094339622642</v>
@@ -5462,13 +5462,13 @@
         <v>260</v>
       </c>
       <c r="G62" t="n">
-        <v>3040.10034217609</v>
+        <v>3361.62821411273</v>
       </c>
       <c r="H62" t="n">
         <v>64900</v>
       </c>
       <c r="I62" t="n">
-        <v>18011.69669</v>
+        <v>21665</v>
       </c>
       <c r="J62" t="n">
         <v>41.5094339622642</v>
@@ -5547,13 +5547,13 @@
         <v>260</v>
       </c>
       <c r="G63" t="n">
-        <v>3040.10034217609</v>
+        <v>3361.62821411273</v>
       </c>
       <c r="H63" t="n">
         <v>64900</v>
       </c>
       <c r="I63" t="n">
-        <v>18011.69669</v>
+        <v>21665</v>
       </c>
       <c r="J63" t="n">
         <v>41.5094339622642</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.2495</v>
+        <v>0.24925</v>
       </c>
       <c r="G69" t="n">
-        <v>0.261789167801687</v>
+        <v>0.261836559785098</v>
       </c>
       <c r="H69" t="n">
         <v>0.8</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.2495</v>
+        <v>0.24925</v>
       </c>
       <c r="G70" t="n">
-        <v>0.261789167801687</v>
+        <v>0.261836559785098</v>
       </c>
       <c r="H70" t="n">
         <v>0.8</v>
@@ -6430,7 +6430,7 @@
         <v>140</v>
       </c>
       <c r="G74" t="n">
-        <v>2321.60578427877</v>
+        <v>2631.44173359954</v>
       </c>
       <c r="H74" t="n">
         <v>64900</v>
@@ -6515,7 +6515,7 @@
         <v>140</v>
       </c>
       <c r="G75" t="n">
-        <v>2321.60578427877</v>
+        <v>2631.44173359954</v>
       </c>
       <c r="H75" t="n">
         <v>64900</v>
@@ -6600,7 +6600,7 @@
         <v>140</v>
       </c>
       <c r="G76" t="n">
-        <v>2321.60578427877</v>
+        <v>2631.44173359954</v>
       </c>
       <c r="H76" t="n">
         <v>64900</v>
@@ -6685,7 +6685,7 @@
         <v>140</v>
       </c>
       <c r="G77" t="n">
-        <v>2321.60578427877</v>
+        <v>2631.44173359954</v>
       </c>
       <c r="H77" t="n">
         <v>64900</v>
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.241</v>
+        <v>0.24075</v>
       </c>
       <c r="G83" t="n">
-        <v>0.265906893515875</v>
+        <v>0.265954765234348</v>
       </c>
       <c r="H83" t="n">
         <v>0.868</v>
@@ -7241,10 +7241,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.241</v>
+        <v>0.24075</v>
       </c>
       <c r="G84" t="n">
-        <v>0.265906893515875</v>
+        <v>0.265954765234348</v>
       </c>
       <c r="H84" t="n">
         <v>0.868</v>
@@ -7568,7 +7568,7 @@
         <v>155.5</v>
       </c>
       <c r="G88" t="n">
-        <v>2451.60227183332</v>
+        <v>2779.31337207644</v>
       </c>
       <c r="H88" t="n">
         <v>64900</v>
@@ -7653,7 +7653,7 @@
         <v>155.5</v>
       </c>
       <c r="G89" t="n">
-        <v>2451.60227183332</v>
+        <v>2779.31337207644</v>
       </c>
       <c r="H89" t="n">
         <v>64900</v>
@@ -7738,7 +7738,7 @@
         <v>155.5</v>
       </c>
       <c r="G90" t="n">
-        <v>2451.60227183332</v>
+        <v>2779.31337207644</v>
       </c>
       <c r="H90" t="n">
         <v>64900</v>
@@ -7823,7 +7823,7 @@
         <v>155.5</v>
       </c>
       <c r="G91" t="n">
-        <v>2451.60227183332</v>
+        <v>2779.31337207644</v>
       </c>
       <c r="H91" t="n">
         <v>64900</v>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.237</v>
+        <v>0.2375</v>
       </c>
       <c r="G97" t="n">
-        <v>0.263038671565829</v>
+        <v>0.263079555346172</v>
       </c>
       <c r="H97" t="n">
         <v>0.868</v>
@@ -8379,10 +8379,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.237</v>
+        <v>0.2375</v>
       </c>
       <c r="G98" t="n">
-        <v>0.263038671565829</v>
+        <v>0.263079555346172</v>
       </c>
       <c r="H98" t="n">
         <v>0.868</v>
@@ -8706,7 +8706,7 @@
         <v>137.5</v>
       </c>
       <c r="G102" t="n">
-        <v>2341.60227183332</v>
+        <v>2669.31337207644</v>
       </c>
       <c r="H102" t="n">
         <v>64900</v>
@@ -8791,7 +8791,7 @@
         <v>137.5</v>
       </c>
       <c r="G103" t="n">
-        <v>2341.60227183332</v>
+        <v>2669.31337207644</v>
       </c>
       <c r="H103" t="n">
         <v>64900</v>
@@ -8876,7 +8876,7 @@
         <v>137.5</v>
       </c>
       <c r="G104" t="n">
-        <v>2341.60227183332</v>
+        <v>2669.31337207644</v>
       </c>
       <c r="H104" t="n">
         <v>64900</v>
@@ -8961,7 +8961,7 @@
         <v>137.5</v>
       </c>
       <c r="G105" t="n">
-        <v>2341.60227183332</v>
+        <v>2669.31337207644</v>
       </c>
       <c r="H105" t="n">
         <v>64900</v>
@@ -9443,7 +9443,7 @@
         <v>0.19</v>
       </c>
       <c r="G111" t="n">
-        <v>0.25526869711264</v>
+        <v>0.255308794666438</v>
       </c>
       <c r="H111" t="n">
         <v>0.868</v>
@@ -9520,7 +9520,7 @@
         <v>0.19</v>
       </c>
       <c r="G112" t="n">
-        <v>0.25526869711264</v>
+        <v>0.255308794666438</v>
       </c>
       <c r="H112" t="n">
         <v>0.868</v>
@@ -10889,7 +10889,7 @@
         <v>0.174</v>
       </c>
       <c r="G129" t="n">
-        <v>0.254234749997201</v>
+        <v>0.254281516130486</v>
       </c>
       <c r="H129" t="n">
         <v>0.868</v>
@@ -10903,7 +10903,7 @@
         <v>0.037</v>
       </c>
       <c r="M129" t="n">
-        <v>0.44781</v>
+        <v>0.44789</v>
       </c>
       <c r="N129" t="n">
         <v>0.6512</v>
@@ -10966,7 +10966,7 @@
         <v>0.174</v>
       </c>
       <c r="G130" t="n">
-        <v>0.254234749997201</v>
+        <v>0.254281516130486</v>
       </c>
       <c r="H130" t="n">
         <v>0.868</v>
@@ -10980,7 +10980,7 @@
         <v>0.037</v>
       </c>
       <c r="M130" t="n">
-        <v>0.44781</v>
+        <v>0.44789</v>
       </c>
       <c r="N130" t="n">
         <v>0.6512</v>
@@ -12335,10 +12335,10 @@
         <v>0.1425</v>
       </c>
       <c r="G147" t="n">
-        <v>0.26733871048339</v>
+        <v>0.267367124276594</v>
       </c>
       <c r="H147" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I147" t="n">
         <v>0.837</v>
@@ -12412,10 +12412,10 @@
         <v>0.1425</v>
       </c>
       <c r="G148" t="n">
-        <v>0.26733871048339</v>
+        <v>0.267367124276594</v>
       </c>
       <c r="H148" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I148" t="n">
         <v>0.837</v>
@@ -13935,10 +13935,10 @@
         <v>0.1285</v>
       </c>
       <c r="G167" t="n">
-        <v>0.25362</v>
+        <v>0.253618</v>
       </c>
       <c r="H167" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I167" t="n">
         <v>0.737</v>
@@ -13949,7 +13949,7 @@
         <v>0.035</v>
       </c>
       <c r="M167" t="n">
-        <v>0.493</v>
+        <v>0.4928</v>
       </c>
       <c r="N167" t="n">
         <v>0.596</v>
@@ -14012,10 +14012,10 @@
         <v>0.1285</v>
       </c>
       <c r="G168" t="n">
-        <v>0.25362</v>
+        <v>0.253618</v>
       </c>
       <c r="H168" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I168" t="n">
         <v>0.737</v>
@@ -14026,7 +14026,7 @@
         <v>0.035</v>
       </c>
       <c r="M168" t="n">
-        <v>0.493</v>
+        <v>0.4928</v>
       </c>
       <c r="N168" t="n">
         <v>0.596</v>
@@ -14478,10 +14478,10 @@
         <v>0.55</v>
       </c>
       <c r="G174" t="n">
-        <v>0.929682044653077</v>
+        <v>0.899330792360192</v>
       </c>
       <c r="H174" t="n">
-        <v>6.1310099647354</v>
+        <v>4.79555486384846</v>
       </c>
       <c r="I174" t="n">
         <v>2.46</v>
@@ -15535,10 +15535,10 @@
         <v>0.133</v>
       </c>
       <c r="G187" t="n">
-        <v>0.25115427779326</v>
+        <v>0.251157423097401</v>
       </c>
       <c r="H187" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I187" t="n">
         <v>0.7145</v>
@@ -15549,10 +15549,10 @@
         <v>0.033</v>
       </c>
       <c r="M187" t="n">
-        <v>0.49996</v>
+        <v>0.5000599999999999</v>
       </c>
       <c r="N187" t="n">
-        <v>0.587</v>
+        <v>0.58678</v>
       </c>
       <c r="O187" t="n">
         <v>1778217</v>
@@ -15612,10 +15612,10 @@
         <v>0.133</v>
       </c>
       <c r="G188" t="n">
-        <v>0.25115427779326</v>
+        <v>0.251157423097401</v>
       </c>
       <c r="H188" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I188" t="n">
         <v>0.7145</v>
@@ -15626,10 +15626,10 @@
         <v>0.033</v>
       </c>
       <c r="M188" t="n">
-        <v>0.49996</v>
+        <v>0.5000599999999999</v>
       </c>
       <c r="N188" t="n">
-        <v>0.587</v>
+        <v>0.58678</v>
       </c>
       <c r="O188" t="n">
         <v>1778217</v>
@@ -16078,10 +16078,10 @@
         <v>0.6</v>
       </c>
       <c r="G194" t="n">
-        <v>0.895577999216342</v>
+        <v>0.865901219196632</v>
       </c>
       <c r="H194" t="n">
-        <v>6.1310099647354</v>
+        <v>4.79555486384846</v>
       </c>
       <c r="I194" t="n">
         <v>2.25</v>
@@ -16321,10 +16321,10 @@
         <v>149</v>
       </c>
       <c r="G197" t="n">
-        <v>991.5253610594669</v>
+        <v>1037.51622562838</v>
       </c>
       <c r="H197" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I197" t="n">
         <v>5440</v>
@@ -16406,10 +16406,10 @@
         <v>149</v>
       </c>
       <c r="G198" t="n">
-        <v>991.5253610594669</v>
+        <v>1037.51622562838</v>
       </c>
       <c r="H198" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I198" t="n">
         <v>5440</v>
@@ -16491,10 +16491,10 @@
         <v>149</v>
       </c>
       <c r="G199" t="n">
-        <v>991.5253610594669</v>
+        <v>1037.51622562838</v>
       </c>
       <c r="H199" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I199" t="n">
         <v>5440</v>
@@ -16576,10 +16576,10 @@
         <v>149</v>
       </c>
       <c r="G200" t="n">
-        <v>991.5253610594669</v>
+        <v>1037.51622562838</v>
       </c>
       <c r="H200" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I200" t="n">
         <v>5440</v>
@@ -17135,10 +17135,10 @@
         <v>0.1695</v>
       </c>
       <c r="G207" t="n">
-        <v>0.276040309685977</v>
+        <v>0.276043396743745</v>
       </c>
       <c r="H207" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I207" t="n">
         <v>0.7594</v>
@@ -17149,7 +17149,7 @@
         <v>0.045</v>
       </c>
       <c r="M207" t="n">
-        <v>0.5091599999999999</v>
+        <v>0.50926</v>
       </c>
       <c r="N207" t="n">
         <v>0.70666</v>
@@ -17212,10 +17212,10 @@
         <v>0.1695</v>
       </c>
       <c r="G208" t="n">
-        <v>0.276040309685977</v>
+        <v>0.276043396743745</v>
       </c>
       <c r="H208" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I208" t="n">
         <v>0.7594</v>
@@ -17226,7 +17226,7 @@
         <v>0.045</v>
       </c>
       <c r="M208" t="n">
-        <v>0.5091599999999999</v>
+        <v>0.50926</v>
       </c>
       <c r="N208" t="n">
         <v>0.70666</v>
@@ -17678,10 +17678,10 @@
         <v>0.855</v>
       </c>
       <c r="G214" t="n">
-        <v>0.946620199294708</v>
+        <v>0.919911097276969</v>
       </c>
       <c r="H214" t="n">
-        <v>6.1310099647354</v>
+        <v>4.79555486384846</v>
       </c>
       <c r="I214" t="n">
         <v>2.2</v>
@@ -17921,10 +17921,10 @@
         <v>124</v>
       </c>
       <c r="G217" t="n">
-        <v>850.269640301951</v>
+        <v>893.839933051449</v>
       </c>
       <c r="H217" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I217" t="n">
         <v>5402.8</v>
@@ -18006,10 +18006,10 @@
         <v>124</v>
       </c>
       <c r="G218" t="n">
-        <v>850.269640301951</v>
+        <v>893.839933051449</v>
       </c>
       <c r="H218" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I218" t="n">
         <v>5402.8</v>
@@ -18091,10 +18091,10 @@
         <v>124</v>
       </c>
       <c r="G219" t="n">
-        <v>850.269640301951</v>
+        <v>893.839933051449</v>
       </c>
       <c r="H219" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I219" t="n">
         <v>5402.8</v>
@@ -18176,10 +18176,10 @@
         <v>124</v>
       </c>
       <c r="G220" t="n">
-        <v>850.269640301951</v>
+        <v>893.839933051449</v>
       </c>
       <c r="H220" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I220" t="n">
         <v>5402.8</v>
@@ -18735,10 +18735,10 @@
         <v>0.235</v>
       </c>
       <c r="G227" t="n">
-        <v>0.282757486369172</v>
+        <v>0.28275514779232</v>
       </c>
       <c r="H227" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I227" t="n">
         <v>0.74225</v>
@@ -18749,10 +18749,10 @@
         <v>0.05</v>
       </c>
       <c r="M227" t="n">
-        <v>0.51553</v>
+        <v>0.51577</v>
       </c>
       <c r="N227" t="n">
-        <v>0.60862</v>
+        <v>0.6086</v>
       </c>
       <c r="O227" t="n">
         <v>1778217</v>
@@ -18812,10 +18812,10 @@
         <v>0.235</v>
       </c>
       <c r="G228" t="n">
-        <v>0.282757486369172</v>
+        <v>0.28275514779232</v>
       </c>
       <c r="H228" t="n">
-        <v>1.145</v>
+        <v>1.1451</v>
       </c>
       <c r="I228" t="n">
         <v>0.74225</v>
@@ -18826,10 +18826,10 @@
         <v>0.05</v>
       </c>
       <c r="M228" t="n">
-        <v>0.51553</v>
+        <v>0.51577</v>
       </c>
       <c r="N228" t="n">
-        <v>0.60862</v>
+        <v>0.6086</v>
       </c>
       <c r="O228" t="n">
         <v>1778217</v>
@@ -19278,10 +19278,10 @@
         <v>0.84</v>
       </c>
       <c r="G234" t="n">
-        <v>0.956191701377349</v>
+        <v>0.927777763060605</v>
       </c>
       <c r="H234" t="n">
-        <v>6.1310099647354</v>
+        <v>4.79555486384846</v>
       </c>
       <c r="I234" t="n">
         <v>2.115</v>
@@ -19521,10 +19521,10 @@
         <v>120</v>
       </c>
       <c r="G237" t="n">
-        <v>671.327726362476</v>
+        <v>718.186343093068</v>
       </c>
       <c r="H237" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I237" t="n">
         <v>3810</v>
@@ -19606,10 +19606,10 @@
         <v>120</v>
       </c>
       <c r="G238" t="n">
-        <v>671.327726362476</v>
+        <v>718.186343093068</v>
       </c>
       <c r="H238" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I238" t="n">
         <v>3810</v>
@@ -19691,10 +19691,10 @@
         <v>120</v>
       </c>
       <c r="G239" t="n">
-        <v>671.327726362476</v>
+        <v>718.186343093068</v>
       </c>
       <c r="H239" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I239" t="n">
         <v>3810</v>
@@ -19776,10 +19776,10 @@
         <v>120</v>
       </c>
       <c r="G240" t="n">
-        <v>671.327726362476</v>
+        <v>718.186343093068</v>
       </c>
       <c r="H240" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I240" t="n">
         <v>3810</v>
@@ -20332,10 +20332,10 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0.259</v>
+        <v>0.2591</v>
       </c>
       <c r="G247" t="n">
-        <v>0.295286353264958</v>
+        <v>0.29528383819174</v>
       </c>
       <c r="H247" t="n">
         <v>0.765</v>
@@ -20346,7 +20346,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.07065</v>
       </c>
       <c r="M247" t="n">
         <v>0.56235</v>
@@ -20409,10 +20409,10 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0.259</v>
+        <v>0.2591</v>
       </c>
       <c r="G248" t="n">
-        <v>0.295286353264958</v>
+        <v>0.29528383819174</v>
       </c>
       <c r="H248" t="n">
         <v>0.765</v>
@@ -20423,7 +20423,7 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.07065</v>
       </c>
       <c r="M248" t="n">
         <v>0.56235</v>
@@ -20878,10 +20878,10 @@
         <v>0.88</v>
       </c>
       <c r="G254" t="n">
-        <v>1.01490931738035</v>
+        <v>0.984558065087465</v>
       </c>
       <c r="H254" t="n">
-        <v>6.1310099647354</v>
+        <v>4.79555486384846</v>
       </c>
       <c r="I254" t="n">
         <v>2.06</v>
@@ -21121,10 +21121,10 @@
         <v>92</v>
       </c>
       <c r="G257" t="n">
-        <v>715.156797813005</v>
+        <v>767.997365615587</v>
       </c>
       <c r="H257" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I257" t="n">
         <v>4500</v>
@@ -21206,10 +21206,10 @@
         <v>92</v>
       </c>
       <c r="G258" t="n">
-        <v>715.156797813005</v>
+        <v>767.997365615587</v>
       </c>
       <c r="H258" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I258" t="n">
         <v>4500</v>
@@ -21291,10 +21291,10 @@
         <v>92</v>
       </c>
       <c r="G259" t="n">
-        <v>715.156797813005</v>
+        <v>767.997365615587</v>
       </c>
       <c r="H259" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I259" t="n">
         <v>4500</v>
@@ -21376,10 +21376,10 @@
         <v>92</v>
       </c>
       <c r="G260" t="n">
-        <v>715.156797813005</v>
+        <v>767.997365615587</v>
       </c>
       <c r="H260" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I260" t="n">
         <v>4500</v>
@@ -21932,10 +21932,10 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0.235</v>
+        <v>0.2353</v>
       </c>
       <c r="G267" t="n">
-        <v>0.29300376006474</v>
+        <v>0.293020072854515</v>
       </c>
       <c r="H267" t="n">
         <v>0.765</v>
@@ -21946,7 +21946,7 @@
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.07065</v>
       </c>
       <c r="M267" t="n">
         <v>0.57765</v>
@@ -22009,10 +22009,10 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0.235</v>
+        <v>0.2353</v>
       </c>
       <c r="G268" t="n">
-        <v>0.29300376006474</v>
+        <v>0.293020072854515</v>
       </c>
       <c r="H268" t="n">
         <v>0.765</v>
@@ -22023,7 +22023,7 @@
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.07065</v>
       </c>
       <c r="M268" t="n">
         <v>0.57765</v>
@@ -22721,10 +22721,10 @@
         <v>130</v>
       </c>
       <c r="G277" t="n">
-        <v>834.433393557685</v>
+        <v>887.273961360268</v>
       </c>
       <c r="H277" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I277" t="n">
         <v>4500</v>
@@ -22806,10 +22806,10 @@
         <v>130</v>
       </c>
       <c r="G278" t="n">
-        <v>834.433393557685</v>
+        <v>887.273961360268</v>
       </c>
       <c r="H278" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I278" t="n">
         <v>4500</v>
@@ -22891,10 +22891,10 @@
         <v>130</v>
       </c>
       <c r="G279" t="n">
-        <v>834.433393557685</v>
+        <v>887.273961360268</v>
       </c>
       <c r="H279" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I279" t="n">
         <v>4500</v>
@@ -22976,10 +22976,10 @@
         <v>130</v>
       </c>
       <c r="G280" t="n">
-        <v>834.433393557685</v>
+        <v>887.273961360268</v>
       </c>
       <c r="H280" t="n">
-        <v>9974.9183297743</v>
+        <v>12458.4250164957</v>
       </c>
       <c r="I280" t="n">
         <v>4500</v>
@@ -23535,7 +23535,7 @@
         <v>0.275</v>
       </c>
       <c r="G287" t="n">
-        <v>0.306468085106383</v>
+        <v>0.306489361702128</v>
       </c>
       <c r="H287" t="n">
         <v>0.765</v>
@@ -23612,7 +23612,7 @@
         <v>0.275</v>
       </c>
       <c r="G288" t="n">
-        <v>0.306468085106383</v>
+        <v>0.306489361702128</v>
       </c>
       <c r="H288" t="n">
         <v>0.765</v>
@@ -25132,10 +25132,10 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0.35</v>
+        <v>0.3505</v>
       </c>
       <c r="G307" t="n">
-        <v>0.309153846153846</v>
+        <v>0.309179487179487</v>
       </c>
       <c r="H307" t="n">
         <v>0.708</v>
@@ -25209,10 +25209,10 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0.35</v>
+        <v>0.3505</v>
       </c>
       <c r="G308" t="n">
-        <v>0.309153846153846</v>
+        <v>0.309179487179487</v>
       </c>
       <c r="H308" t="n">
         <v>0.708</v>
@@ -25802,6 +25802,237 @@
       </c>
       <c r="U315" t="inlineStr"/>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.4006</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0.5257500000000001</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="P316" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>103</v>
+      </c>
+      <c r="G317" t="n">
+        <v>97.30200000000001</v>
+      </c>
+      <c r="H317" t="n">
+        <v>108.18</v>
+      </c>
+      <c r="I317" t="n">
+        <v>108.18</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>100</v>
+      </c>
+      <c r="M317" t="n">
+        <v>107.067</v>
+      </c>
+      <c r="N317" t="n">
+        <v>108.18</v>
+      </c>
+      <c r="O317" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="P317" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Whanganui at Wades Landing</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>4.133</v>
+      </c>
+      <c r="G318" t="n">
+        <v>4.4612</v>
+      </c>
+      <c r="H318" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="I318" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>3.9265</v>
+      </c>
+      <c r="M318" t="n">
+        <v>5.55005</v>
+      </c>
+      <c r="N318" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="O318" t="n">
+        <v>1778217</v>
+      </c>
+      <c r="P318" t="n">
+        <v>5668812</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhanganuiatWadesLanding_5c7967a111.xlsx
+++ b/state_results/Rivers/WhanganuiatWadesLanding_5c7967a111.xlsx
@@ -1056,13 +1056,13 @@
         <v>182.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1897.49112569783</v>
+        <v>2080.48471650432</v>
       </c>
       <c r="H8" t="n">
         <v>24200</v>
       </c>
       <c r="I8" t="n">
-        <v>9940</v>
+        <v>10215.49607</v>
       </c>
       <c r="J8" t="n">
         <v>38.2352941176471</v>
@@ -1077,7 +1077,7 @@
         <v>2288</v>
       </c>
       <c r="N8" t="n">
-        <v>7392</v>
+        <v>8774.43468</v>
       </c>
       <c r="O8" t="n">
         <v>1778217</v>
@@ -1141,13 +1141,13 @@
         <v>182.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1897.49112569783</v>
+        <v>2080.48471650432</v>
       </c>
       <c r="H9" t="n">
         <v>24200</v>
       </c>
       <c r="I9" t="n">
-        <v>9940</v>
+        <v>10215.49607</v>
       </c>
       <c r="J9" t="n">
         <v>38.2352941176471</v>
@@ -1162,7 +1162,7 @@
         <v>2288</v>
       </c>
       <c r="N9" t="n">
-        <v>7392</v>
+        <v>8774.43468</v>
       </c>
       <c r="O9" t="n">
         <v>1778217</v>
@@ -1226,13 +1226,13 @@
         <v>182.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1897.49112569783</v>
+        <v>2080.48471650432</v>
       </c>
       <c r="H10" t="n">
         <v>24200</v>
       </c>
       <c r="I10" t="n">
-        <v>9940</v>
+        <v>10215.49607</v>
       </c>
       <c r="J10" t="n">
         <v>38.2352941176471</v>
@@ -1247,7 +1247,7 @@
         <v>2288</v>
       </c>
       <c r="N10" t="n">
-        <v>7392</v>
+        <v>8774.43468</v>
       </c>
       <c r="O10" t="n">
         <v>1778217</v>
@@ -1311,13 +1311,13 @@
         <v>182.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1897.49112569783</v>
+        <v>2080.48471650432</v>
       </c>
       <c r="H11" t="n">
         <v>24200</v>
       </c>
       <c r="I11" t="n">
-        <v>9940</v>
+        <v>10215.49607</v>
       </c>
       <c r="J11" t="n">
         <v>38.2352941176471</v>
@@ -1332,7 +1332,7 @@
         <v>2288</v>
       </c>
       <c r="N11" t="n">
-        <v>7392</v>
+        <v>8774.43468</v>
       </c>
       <c r="O11" t="n">
         <v>1778217</v>
@@ -1878,13 +1878,13 @@
         <v>230</v>
       </c>
       <c r="G18" t="n">
-        <v>1734.25472080301</v>
+        <v>1882.39238955111</v>
       </c>
       <c r="H18" t="n">
         <v>24200</v>
       </c>
       <c r="I18" t="n">
-        <v>8820</v>
+        <v>9646.488219999999</v>
       </c>
       <c r="J18" t="n">
         <v>38.0952380952381</v>
@@ -1899,7 +1899,7 @@
         <v>2144</v>
       </c>
       <c r="N18" t="n">
-        <v>6496</v>
+        <v>7892.84725</v>
       </c>
       <c r="O18" t="n">
         <v>1778217</v>
@@ -1963,13 +1963,13 @@
         <v>230</v>
       </c>
       <c r="G19" t="n">
-        <v>1734.25472080301</v>
+        <v>1882.39238955111</v>
       </c>
       <c r="H19" t="n">
         <v>24200</v>
       </c>
       <c r="I19" t="n">
-        <v>8820</v>
+        <v>9646.488219999999</v>
       </c>
       <c r="J19" t="n">
         <v>38.0952380952381</v>
@@ -1984,7 +1984,7 @@
         <v>2144</v>
       </c>
       <c r="N19" t="n">
-        <v>6496</v>
+        <v>7892.84725</v>
       </c>
       <c r="O19" t="n">
         <v>1778217</v>
@@ -2048,13 +2048,13 @@
         <v>230</v>
       </c>
       <c r="G20" t="n">
-        <v>1734.25472080301</v>
+        <v>1882.39238955111</v>
       </c>
       <c r="H20" t="n">
         <v>24200</v>
       </c>
       <c r="I20" t="n">
-        <v>8820</v>
+        <v>9646.488219999999</v>
       </c>
       <c r="J20" t="n">
         <v>38.0952380952381</v>
@@ -2069,7 +2069,7 @@
         <v>2144</v>
       </c>
       <c r="N20" t="n">
-        <v>6496</v>
+        <v>7892.84725</v>
       </c>
       <c r="O20" t="n">
         <v>1778217</v>
@@ -2133,13 +2133,13 @@
         <v>230</v>
       </c>
       <c r="G21" t="n">
-        <v>1734.25472080301</v>
+        <v>1882.39238955111</v>
       </c>
       <c r="H21" t="n">
         <v>24200</v>
       </c>
       <c r="I21" t="n">
-        <v>8820</v>
+        <v>9646.488219999999</v>
       </c>
       <c r="J21" t="n">
         <v>38.0952380952381</v>
@@ -2154,7 +2154,7 @@
         <v>2144</v>
       </c>
       <c r="N21" t="n">
-        <v>6496</v>
+        <v>7892.84725</v>
       </c>
       <c r="O21" t="n">
         <v>1778217</v>
@@ -3016,13 +3016,13 @@
         <v>230</v>
       </c>
       <c r="G32" t="n">
-        <v>1643.43650526397</v>
+        <v>1763.08616079128</v>
       </c>
       <c r="H32" t="n">
         <v>24200</v>
       </c>
       <c r="I32" t="n">
-        <v>7560</v>
+        <v>8939.732330000001</v>
       </c>
       <c r="J32" t="n">
         <v>40.3846153846154</v>
@@ -3037,7 +3037,7 @@
         <v>2264</v>
       </c>
       <c r="N32" t="n">
-        <v>5772</v>
+        <v>6776</v>
       </c>
       <c r="O32" t="n">
         <v>1778217</v>
@@ -3101,13 +3101,13 @@
         <v>230</v>
       </c>
       <c r="G33" t="n">
-        <v>1643.43650526397</v>
+        <v>1763.08616079128</v>
       </c>
       <c r="H33" t="n">
         <v>24200</v>
       </c>
       <c r="I33" t="n">
-        <v>7560</v>
+        <v>8939.732330000001</v>
       </c>
       <c r="J33" t="n">
         <v>40.3846153846154</v>
@@ -3122,7 +3122,7 @@
         <v>2264</v>
       </c>
       <c r="N33" t="n">
-        <v>5772</v>
+        <v>6776</v>
       </c>
       <c r="O33" t="n">
         <v>1778217</v>
@@ -3186,13 +3186,13 @@
         <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>1643.43650526397</v>
+        <v>1763.08616079128</v>
       </c>
       <c r="H34" t="n">
         <v>24200</v>
       </c>
       <c r="I34" t="n">
-        <v>7560</v>
+        <v>8939.732330000001</v>
       </c>
       <c r="J34" t="n">
         <v>40.3846153846154</v>
@@ -3207,7 +3207,7 @@
         <v>2264</v>
       </c>
       <c r="N34" t="n">
-        <v>5772</v>
+        <v>6776</v>
       </c>
       <c r="O34" t="n">
         <v>1778217</v>
@@ -3271,13 +3271,13 @@
         <v>230</v>
       </c>
       <c r="G35" t="n">
-        <v>1643.43650526397</v>
+        <v>1763.08616079128</v>
       </c>
       <c r="H35" t="n">
         <v>24200</v>
       </c>
       <c r="I35" t="n">
-        <v>7560</v>
+        <v>8939.732330000001</v>
       </c>
       <c r="J35" t="n">
         <v>40.3846153846154</v>
@@ -3292,7 +3292,7 @@
         <v>2264</v>
       </c>
       <c r="N35" t="n">
-        <v>5772</v>
+        <v>6776</v>
       </c>
       <c r="O35" t="n">
         <v>1778217</v>
@@ -4154,13 +4154,13 @@
         <v>285</v>
       </c>
       <c r="G46" t="n">
-        <v>2434.33983832991</v>
+        <v>3349.39457233774</v>
       </c>
       <c r="H46" t="n">
-        <v>36942.9733194293</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I46" t="n">
-        <v>10180</v>
+        <v>10357.74804</v>
       </c>
       <c r="J46" t="n">
         <v>44.2307692307692</v>
@@ -4172,10 +4172,10 @@
         <v>85</v>
       </c>
       <c r="M46" t="n">
-        <v>3841.93741</v>
+        <v>4515</v>
       </c>
       <c r="N46" t="n">
-        <v>6640</v>
+        <v>7904.34332</v>
       </c>
       <c r="O46" t="n">
         <v>1778217</v>
@@ -4239,13 +4239,13 @@
         <v>285</v>
       </c>
       <c r="G47" t="n">
-        <v>2434.33983832991</v>
+        <v>3349.39457233774</v>
       </c>
       <c r="H47" t="n">
-        <v>36942.9733194293</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I47" t="n">
-        <v>10180</v>
+        <v>10357.74804</v>
       </c>
       <c r="J47" t="n">
         <v>44.2307692307692</v>
@@ -4257,10 +4257,10 @@
         <v>85</v>
       </c>
       <c r="M47" t="n">
-        <v>3841.93741</v>
+        <v>4515</v>
       </c>
       <c r="N47" t="n">
-        <v>6640</v>
+        <v>7904.34332</v>
       </c>
       <c r="O47" t="n">
         <v>1778217</v>
@@ -4324,13 +4324,13 @@
         <v>285</v>
       </c>
       <c r="G48" t="n">
-        <v>2434.33983832991</v>
+        <v>3349.39457233774</v>
       </c>
       <c r="H48" t="n">
-        <v>36942.9733194293</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I48" t="n">
-        <v>10180</v>
+        <v>10357.74804</v>
       </c>
       <c r="J48" t="n">
         <v>44.2307692307692</v>
@@ -4342,10 +4342,10 @@
         <v>85</v>
       </c>
       <c r="M48" t="n">
-        <v>3841.93741</v>
+        <v>4515</v>
       </c>
       <c r="N48" t="n">
-        <v>6640</v>
+        <v>7904.34332</v>
       </c>
       <c r="O48" t="n">
         <v>1778217</v>
@@ -4409,13 +4409,13 @@
         <v>285</v>
       </c>
       <c r="G49" t="n">
-        <v>2434.33983832991</v>
+        <v>3349.39457233774</v>
       </c>
       <c r="H49" t="n">
-        <v>36942.9733194293</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I49" t="n">
-        <v>10180</v>
+        <v>10357.74804</v>
       </c>
       <c r="J49" t="n">
         <v>44.2307692307692</v>
@@ -4427,10 +4427,10 @@
         <v>85</v>
       </c>
       <c r="M49" t="n">
-        <v>3841.93741</v>
+        <v>4515</v>
       </c>
       <c r="N49" t="n">
-        <v>6640</v>
+        <v>7904.34332</v>
       </c>
       <c r="O49" t="n">
         <v>1778217</v>
@@ -5292,10 +5292,10 @@
         <v>260</v>
       </c>
       <c r="G60" t="n">
-        <v>3361.62821411273</v>
+        <v>4142.02564960304</v>
       </c>
       <c r="H60" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I60" t="n">
         <v>21665</v>
@@ -5377,10 +5377,10 @@
         <v>260</v>
       </c>
       <c r="G61" t="n">
-        <v>3361.62821411273</v>
+        <v>4142.02564960304</v>
       </c>
       <c r="H61" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I61" t="n">
         <v>21665</v>
@@ -5462,10 +5462,10 @@
         <v>260</v>
       </c>
       <c r="G62" t="n">
-        <v>3361.62821411273</v>
+        <v>4142.02564960304</v>
       </c>
       <c r="H62" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I62" t="n">
         <v>21665</v>
@@ -5547,10 +5547,10 @@
         <v>260</v>
       </c>
       <c r="G63" t="n">
-        <v>3361.62821411273</v>
+        <v>4142.02564960304</v>
       </c>
       <c r="H63" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I63" t="n">
         <v>21665</v>
@@ -6430,10 +6430,10 @@
         <v>140</v>
       </c>
       <c r="G74" t="n">
-        <v>2631.44173359954</v>
+        <v>3383.46108052657</v>
       </c>
       <c r="H74" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I74" t="n">
         <v>6850</v>
@@ -6515,10 +6515,10 @@
         <v>140</v>
       </c>
       <c r="G75" t="n">
-        <v>2631.44173359954</v>
+        <v>3383.46108052657</v>
       </c>
       <c r="H75" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I75" t="n">
         <v>6850</v>
@@ -6600,10 +6600,10 @@
         <v>140</v>
       </c>
       <c r="G76" t="n">
-        <v>2631.44173359954</v>
+        <v>3383.46108052657</v>
       </c>
       <c r="H76" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I76" t="n">
         <v>6850</v>
@@ -6685,10 +6685,10 @@
         <v>140</v>
       </c>
       <c r="G77" t="n">
-        <v>2631.44173359954</v>
+        <v>3383.46108052657</v>
       </c>
       <c r="H77" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I77" t="n">
         <v>6850</v>
@@ -7568,10 +7568,10 @@
         <v>155.5</v>
       </c>
       <c r="G88" t="n">
-        <v>2779.31337207644</v>
+        <v>3574.71845055694</v>
       </c>
       <c r="H88" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I88" t="n">
         <v>7660.9</v>
@@ -7653,10 +7653,10 @@
         <v>155.5</v>
       </c>
       <c r="G89" t="n">
-        <v>2779.31337207644</v>
+        <v>3574.71845055694</v>
       </c>
       <c r="H89" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I89" t="n">
         <v>7660.9</v>
@@ -7738,10 +7738,10 @@
         <v>155.5</v>
       </c>
       <c r="G90" t="n">
-        <v>2779.31337207644</v>
+        <v>3574.71845055694</v>
       </c>
       <c r="H90" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I90" t="n">
         <v>7660.9</v>
@@ -7823,10 +7823,10 @@
         <v>155.5</v>
       </c>
       <c r="G91" t="n">
-        <v>2779.31337207644</v>
+        <v>3574.71845055694</v>
       </c>
       <c r="H91" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I91" t="n">
         <v>7660.9</v>
@@ -8706,10 +8706,10 @@
         <v>137.5</v>
       </c>
       <c r="G102" t="n">
-        <v>2669.31337207644</v>
+        <v>3464.71845055694</v>
       </c>
       <c r="H102" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I102" t="n">
         <v>7660.9</v>
@@ -8791,10 +8791,10 @@
         <v>137.5</v>
       </c>
       <c r="G103" t="n">
-        <v>2669.31337207644</v>
+        <v>3464.71845055694</v>
       </c>
       <c r="H103" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I103" t="n">
         <v>7660.9</v>
@@ -8876,10 +8876,10 @@
         <v>137.5</v>
       </c>
       <c r="G104" t="n">
-        <v>2669.31337207644</v>
+        <v>3464.71845055694</v>
       </c>
       <c r="H104" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I104" t="n">
         <v>7660.9</v>
@@ -8961,10 +8961,10 @@
         <v>137.5</v>
       </c>
       <c r="G105" t="n">
-        <v>2669.31337207644</v>
+        <v>3464.71845055694</v>
       </c>
       <c r="H105" t="n">
-        <v>64900</v>
+        <v>78304.03740041571</v>
       </c>
       <c r="I105" t="n">
         <v>7660.9</v>
@@ -14478,10 +14478,10 @@
         <v>0.55</v>
       </c>
       <c r="G174" t="n">
-        <v>0.899330792360192</v>
+        <v>0.935814064559364</v>
       </c>
       <c r="H174" t="n">
-        <v>4.79555486384846</v>
+        <v>6.40081884061201</v>
       </c>
       <c r="I174" t="n">
         <v>2.46</v>
@@ -16078,10 +16078,10 @@
         <v>0.6</v>
       </c>
       <c r="G194" t="n">
-        <v>0.865901219196632</v>
+        <v>0.9015737520136</v>
       </c>
       <c r="H194" t="n">
-        <v>4.79555486384846</v>
+        <v>6.40081884061201</v>
       </c>
       <c r="I194" t="n">
         <v>2.25</v>
@@ -16321,10 +16321,10 @@
         <v>149</v>
       </c>
       <c r="G197" t="n">
-        <v>1037.51622562838</v>
+        <v>1008.03468039758</v>
       </c>
       <c r="H197" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I197" t="n">
         <v>5440</v>
@@ -16406,10 +16406,10 @@
         <v>149</v>
       </c>
       <c r="G198" t="n">
-        <v>1037.51622562838</v>
+        <v>1008.03468039758</v>
       </c>
       <c r="H198" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I198" t="n">
         <v>5440</v>
@@ -16491,10 +16491,10 @@
         <v>149</v>
       </c>
       <c r="G199" t="n">
-        <v>1037.51622562838</v>
+        <v>1008.03468039758</v>
       </c>
       <c r="H199" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I199" t="n">
         <v>5440</v>
@@ -16576,10 +16576,10 @@
         <v>149</v>
       </c>
       <c r="G200" t="n">
-        <v>1037.51622562838</v>
+        <v>1008.03468039758</v>
       </c>
       <c r="H200" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I200" t="n">
         <v>5440</v>
@@ -17678,10 +17678,10 @@
         <v>0.855</v>
       </c>
       <c r="G214" t="n">
-        <v>0.919911097276969</v>
+        <v>0.9520163768122401</v>
       </c>
       <c r="H214" t="n">
-        <v>4.79555486384846</v>
+        <v>6.40081884061201</v>
       </c>
       <c r="I214" t="n">
         <v>2.2</v>
@@ -17921,10 +17921,10 @@
         <v>124</v>
       </c>
       <c r="G217" t="n">
-        <v>893.839933051449</v>
+        <v>865.910048095949</v>
       </c>
       <c r="H217" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I217" t="n">
         <v>5402.8</v>
@@ -18006,10 +18006,10 @@
         <v>124</v>
       </c>
       <c r="G218" t="n">
-        <v>893.839933051449</v>
+        <v>865.910048095949</v>
       </c>
       <c r="H218" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I218" t="n">
         <v>5402.8</v>
@@ -18091,10 +18091,10 @@
         <v>124</v>
       </c>
       <c r="G219" t="n">
-        <v>893.839933051449</v>
+        <v>865.910048095949</v>
       </c>
       <c r="H219" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I219" t="n">
         <v>5402.8</v>
@@ -18176,10 +18176,10 @@
         <v>124</v>
       </c>
       <c r="G220" t="n">
-        <v>893.839933051449</v>
+        <v>865.910048095949</v>
       </c>
       <c r="H220" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I220" t="n">
         <v>5402.8</v>
@@ -19278,10 +19278,10 @@
         <v>0.84</v>
       </c>
       <c r="G234" t="n">
-        <v>0.927777763060605</v>
+        <v>0.961932315757702</v>
       </c>
       <c r="H234" t="n">
-        <v>4.79555486384846</v>
+        <v>6.40081884061201</v>
       </c>
       <c r="I234" t="n">
         <v>2.115</v>
@@ -19521,10 +19521,10 @@
         <v>120</v>
       </c>
       <c r="G237" t="n">
-        <v>718.186343093068</v>
+        <v>688.148542291869</v>
       </c>
       <c r="H237" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I237" t="n">
         <v>3810</v>
@@ -19606,10 +19606,10 @@
         <v>120</v>
       </c>
       <c r="G238" t="n">
-        <v>718.186343093068</v>
+        <v>688.148542291869</v>
       </c>
       <c r="H238" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I238" t="n">
         <v>3810</v>
@@ -19691,10 +19691,10 @@
         <v>120</v>
       </c>
       <c r="G239" t="n">
-        <v>718.186343093068</v>
+        <v>688.148542291869</v>
       </c>
       <c r="H239" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I239" t="n">
         <v>3810</v>
@@ -19776,10 +19776,10 @@
         <v>120</v>
       </c>
       <c r="G240" t="n">
-        <v>718.186343093068</v>
+        <v>688.148542291869</v>
       </c>
       <c r="H240" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I240" t="n">
         <v>3810</v>
@@ -20878,10 +20878,10 @@
         <v>0.88</v>
       </c>
       <c r="G254" t="n">
-        <v>0.984558065087465</v>
+        <v>1.02104133728664</v>
       </c>
       <c r="H254" t="n">
-        <v>4.79555486384846</v>
+        <v>6.40081884061201</v>
       </c>
       <c r="I254" t="n">
         <v>2.06</v>
@@ -21121,10 +21121,10 @@
         <v>92</v>
       </c>
       <c r="G257" t="n">
-        <v>767.997365615587</v>
+        <v>734.124951946151</v>
       </c>
       <c r="H257" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I257" t="n">
         <v>4500</v>
@@ -21206,10 +21206,10 @@
         <v>92</v>
       </c>
       <c r="G258" t="n">
-        <v>767.997365615587</v>
+        <v>734.124951946151</v>
       </c>
       <c r="H258" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I258" t="n">
         <v>4500</v>
@@ -21291,10 +21291,10 @@
         <v>92</v>
       </c>
       <c r="G259" t="n">
-        <v>767.997365615587</v>
+        <v>734.124951946151</v>
       </c>
       <c r="H259" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I259" t="n">
         <v>4500</v>
@@ -21376,10 +21376,10 @@
         <v>92</v>
       </c>
       <c r="G260" t="n">
-        <v>767.997365615587</v>
+        <v>734.124951946151</v>
       </c>
       <c r="H260" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I260" t="n">
         <v>4500</v>
@@ -22721,10 +22721,10 @@
         <v>130</v>
       </c>
       <c r="G277" t="n">
-        <v>887.273961360268</v>
+        <v>853.401547690831</v>
       </c>
       <c r="H277" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I277" t="n">
         <v>4500</v>
@@ -22806,10 +22806,10 @@
         <v>130</v>
       </c>
       <c r="G278" t="n">
-        <v>887.273961360268</v>
+        <v>853.401547690831</v>
       </c>
       <c r="H278" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I278" t="n">
         <v>4500</v>
@@ -22891,10 +22891,10 @@
         <v>130</v>
       </c>
       <c r="G279" t="n">
-        <v>887.273961360268</v>
+        <v>853.401547690831</v>
       </c>
       <c r="H279" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I279" t="n">
         <v>4500</v>
@@ -22976,10 +22976,10 @@
         <v>130</v>
       </c>
       <c r="G280" t="n">
-        <v>887.273961360268</v>
+        <v>853.401547690831</v>
       </c>
       <c r="H280" t="n">
-        <v>12458.4250164957</v>
+        <v>10866.4215740322</v>
       </c>
       <c r="I280" t="n">
         <v>4500</v>
